--- a/1document/功能需求表.xlsx
+++ b/1document/功能需求表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>NAME</t>
   </si>
@@ -307,24 +307,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>主角受到任何攻击后都会产生一个短暂的无敌状态，无敌时间：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>T_unbeatable</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>Jump 跳跃</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -709,183 +691,7 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>蓄力子弹的特效</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>HP与其中奶茶存量直接相关</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>蓄力发射：
-1.蓄力的时长决定了损失的HP：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">HP_Charging_Shoot_Cut </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>= t/t_max * 100 * a1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-2.蓄力的时长决定了子弹携带的力度：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Bullet_Power </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">= </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>HP_Charging_Shoot_Cut</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> * a2
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>a1 , a2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 是可调节系数
-4.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 是当前蓄力计时
-5.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">t_max </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>是蓄力允许的最长时间
-6.蓄力期间，角色移动速度下降</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Charging_Speed_Cut</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -1089,45 +895,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>HP_Fall_Cut</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>主角在</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>水渍</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上滑动，此状态中玩家仅能转换为</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>跳跃状态</t>
     </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1423,6 +1190,371 @@
   <si>
     <t>1.主角跳跃到空中的状态，要求在空中玩家依旧可以使用←/→键控制其水平移动（控制水平移动时是持续施加其方向上的加速度，直到上升到速度绝对值的最大值），使用↑/↓控制其发射角度
 2.在空中主角依旧可以进行普通攻击/蓄力攻击</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.蓄力子弹的特效
+2.蓄力槽</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>主角受到任何攻击后都会产生一个短暂的无敌状态，无敌时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">T_unbeatable </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（无敌时间会比硬直时间略长）</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.主角在</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>水渍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上滑动，此状态中玩家不能操控
+2.初次进入水渍时，角色会损失一定的HP：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HP_Enter_Slide_Cut</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.初次进水渍的，从普通状态进入到滑动状态的一个动画，以及此时损失HP，奶茶洒出的动画</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>蓄力发射：
+1.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>蓄力的时长</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>决定了损失的HP：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">HP_Charging_Shoot_Cut </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">= t/t_max * 100 * a1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.当按下J的时长达到：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Time_Charge_Enter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>后，才能进入</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>蓄力状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，才会开始播放蓄力的动画，蓄力的时长从进入蓄力状态后才开始计时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.蓄力的时长决定了子弹携带的力度：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Bullet_Power </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HP_Charging_Shoot_Cut</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * a2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a1 , a2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 是可调节系数
+5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 是当前蓄力计时
+6.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">t_max </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是蓄力允许的最长时间
+7.蓄力期间，角色移动速度下降</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Charging_Speed_Cut
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1682,9 +1814,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1728,6 +1857,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2041,7 +2173,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -2068,7 +2200,7 @@
         <v>20</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>21</v>
@@ -2081,424 +2213,426 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="69" customHeight="1">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+    </row>
+    <row r="3" spans="1:8" ht="34.5" customHeight="1">
+      <c r="A3" s="23"/>
+      <c r="B3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" spans="1:8" ht="34.5" customHeight="1">
+      <c r="A4" s="23"/>
+      <c r="B4" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="23"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="1:8" ht="64.5" customHeight="1">
+      <c r="A6" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="1:8" ht="57" customHeight="1">
+      <c r="A7" s="23"/>
+      <c r="B7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:8" ht="52.5" customHeight="1">
+      <c r="A8" s="23"/>
+      <c r="B8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-    </row>
-    <row r="3" spans="1:8" ht="34.5" customHeight="1">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="10" t="s">
+      <c r="E8" s="10"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="1:8" s="14" customFormat="1" ht="52.5" customHeight="1">
+      <c r="A9" s="23"/>
+      <c r="B9" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="1:8" s="14" customFormat="1" ht="53.4" customHeight="1">
+      <c r="A10" s="23"/>
+      <c r="B10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" spans="1:8" s="14" customFormat="1" ht="65.400000000000006" customHeight="1">
+      <c r="A11" s="23"/>
+      <c r="B11" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" spans="1:8" s="14" customFormat="1" ht="65.400000000000006" customHeight="1">
+      <c r="A12" s="23"/>
+      <c r="B12" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-    </row>
-    <row r="4" spans="1:8" ht="34.5" customHeight="1">
-      <c r="A4" s="8"/>
-      <c r="B4" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="8"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-    </row>
-    <row r="6" spans="1:8" ht="64.5" customHeight="1">
-      <c r="A6" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-    </row>
-    <row r="7" spans="1:8" ht="33" customHeight="1">
-      <c r="A7" s="8"/>
-      <c r="B7" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-    </row>
-    <row r="8" spans="1:8" ht="52.5" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-    </row>
-    <row r="9" spans="1:8" s="15" customFormat="1" ht="52.5" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-    </row>
-    <row r="10" spans="1:8" s="15" customFormat="1" ht="53.4" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-    </row>
-    <row r="11" spans="1:8" s="15" customFormat="1" ht="65.400000000000006" customHeight="1">
-      <c r="A11" s="8"/>
-      <c r="B11" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-    </row>
-    <row r="12" spans="1:8" s="15" customFormat="1" ht="65.400000000000006" customHeight="1">
-      <c r="A12" s="8"/>
-      <c r="B12" s="13" t="s">
+      <c r="C12" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-    </row>
-    <row r="13" spans="1:8" s="15" customFormat="1" ht="65.400000000000006" customHeight="1">
-      <c r="A13" s="8"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="1:8" s="14" customFormat="1" ht="65.400000000000006" customHeight="1">
+      <c r="A13" s="23"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="8"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:8" ht="147" customHeight="1">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
+      <c r="D15" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
       <c r="H15" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="112.5" customHeight="1">
-      <c r="A16" s="8"/>
-      <c r="B16" s="11" t="s">
+    <row r="16" spans="1:8" ht="135.6" customHeight="1">
+      <c r="A16" s="23"/>
+      <c r="B16" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" spans="1:7" s="14" customFormat="1" ht="112.5" customHeight="1">
+      <c r="A17" s="23"/>
+      <c r="B17" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" spans="1:7" s="14" customFormat="1" ht="209.4" customHeight="1">
+      <c r="A18" s="23"/>
+      <c r="B18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-    </row>
-    <row r="17" spans="1:7" s="15" customFormat="1" ht="112.5" customHeight="1">
-      <c r="A17" s="8"/>
-      <c r="B17" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="14" t="s">
+      <c r="E18" s="12"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="1:7" s="14" customFormat="1" ht="116.4" customHeight="1">
+      <c r="A19" s="23"/>
+      <c r="B19" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-    </row>
-    <row r="18" spans="1:7" s="15" customFormat="1" ht="139.5" customHeight="1">
-      <c r="A18" s="8"/>
-      <c r="B18" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="14" t="s">
+      <c r="E19" s="12"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" spans="1:7" s="14" customFormat="1" ht="124.5" customHeight="1">
+      <c r="A20" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-    </row>
-    <row r="19" spans="1:7" s="15" customFormat="1" ht="116.4" customHeight="1">
-      <c r="A19" s="8"/>
-      <c r="B19" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="14" t="s">
+      <c r="D20" s="13"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" spans="1:7" ht="111.6" customHeight="1">
+      <c r="A21" s="21"/>
+      <c r="B21" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" spans="1:7" ht="107.4" customHeight="1">
+      <c r="A22" s="21"/>
+      <c r="B22" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-    </row>
-    <row r="20" spans="1:7" s="15" customFormat="1" ht="124.5" customHeight="1">
-      <c r="A20" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="14" t="s">
+      <c r="E22" s="10"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" spans="1:7" ht="95.4" customHeight="1">
+      <c r="A23" s="21"/>
+      <c r="B23" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-    </row>
-    <row r="21" spans="1:7" ht="111.6" customHeight="1">
-      <c r="A21" s="22"/>
-      <c r="B21" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-    </row>
-    <row r="22" spans="1:7" ht="107.4" customHeight="1">
-      <c r="A22" s="22"/>
-      <c r="B22" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-    </row>
-    <row r="23" spans="1:7" ht="95.4" customHeight="1">
-      <c r="A23" s="22"/>
-      <c r="B23" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="23"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
     </row>
     <row r="25" spans="1:7" ht="147" hidden="1" customHeight="1">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+    </row>
+    <row r="26" spans="1:7" ht="61.8" hidden="1" customHeight="1">
+      <c r="A26" s="21"/>
+      <c r="B26" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-    </row>
-    <row r="26" spans="1:7" ht="61.8" hidden="1" customHeight="1">
-      <c r="A26" s="22"/>
-      <c r="B26" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
     </row>
     <row r="27" spans="1:7" ht="62.4" hidden="1" customHeight="1">
-      <c r="A27" s="22"/>
-      <c r="B27" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
     </row>
     <row r="28" spans="1:7" hidden="1">
-      <c r="A28" s="22"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
     </row>
     <row r="29" spans="1:7" hidden="1">
-      <c r="A29" s="22"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
     </row>
     <row r="30" spans="1:7" hidden="1">
-      <c r="A30" s="22"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
     </row>
     <row r="31" spans="1:7" hidden="1">
-      <c r="A31" s="22"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
     </row>
     <row r="32" spans="1:7" hidden="1">
-      <c r="A32" s="22"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
     </row>
     <row r="33" spans="1:7" hidden="1">
-      <c r="A33" s="22"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
     </row>
     <row r="34" spans="1:7" hidden="1">
-      <c r="A34" s="23"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
+      <c r="A34" s="22"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
     </row>
     <row r="35" spans="1:7">
       <c r="F35" s="6"/>

--- a/1document/功能需求表.xlsx
+++ b/1document/功能需求表.xlsx
@@ -904,35 +904,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>0.角色只要开始在水渍中移动，则会以匀速：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>V_slide</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>滑行到水渍边界外的地方
-1.角色在任意时刻出现在水中，且角色水平静止，则角色的下一个水平方向的输入决定了接下来滑动的方向
-2.角色从平地进入水渍中，则从水渍的这一段滑至另一端</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>1.水中滑动，溅起水花的粒子特效
 2.水中滑动的主角动画</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1554,6 +1525,36 @@
       </rPr>
       <t xml:space="preserve">
 </t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0.角色只要开始在水渍中移动，则会以匀速：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>V_slide</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>滑行到水渍边界外的地方
+1.角色在任意时刻出现在水中，且角色水平静止，则角色的下一个水平方向的输入决定了接下来滑动的方向
+2.角色从平地进入水渍中，则从水渍的这一段滑至另一端
+3.滑动时屏蔽一切操作</t>
     </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -2170,10 +2171,10 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -2287,10 +2288,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>67</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>68</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="11"/>
@@ -2332,7 +2333,7 @@
         <v>30</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>31</v>
@@ -2347,7 +2348,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>33</v>
@@ -2413,10 +2414,10 @@
         <v>9</v>
       </c>
       <c r="C16" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>62</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="11"/>
@@ -2443,10 +2444,10 @@
         <v>11</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="11"/>
@@ -2458,7 +2459,7 @@
         <v>12</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>51</v>
@@ -2516,10 +2517,10 @@
         <v>58</v>
       </c>
       <c r="C23" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>59</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>60</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="11"/>

--- a/1document/功能需求表.xlsx
+++ b/1document/功能需求表.xlsx
@@ -303,10 +303,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>角色本体的透明度渐变：透明-不透明-透明 周期性变化</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>Jump 跳跃</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -460,222 +456,6 @@
   </si>
   <si>
     <t>角色之间不能重叠的</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>单次发射：
-1.每次发射固定损失一定值的HP：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">HP_Shoot_Cut
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2.子弹携带的力度：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bullet_Power</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">=HP_Shoot_Cut </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> a1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-4.根据当前发射角度发射子弹，发射速度：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Speed_Shoot
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5.子弹携带的伤害：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bullet_Dmg</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>P_Shoot_Cut</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> * </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>a2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>a1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>a2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 是可调节系数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -1170,34 +950,6 @@
   </si>
   <si>
     <r>
-      <t>主角受到任何攻击后都会产生一个短暂的无敌状态，无敌时间：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">T_unbeatable </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（无敌时间会比硬直时间略长）</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>1.主角在</t>
     </r>
     <r>
@@ -1248,284 +1000,6 @@
   </si>
   <si>
     <t>1.初次进水渍的，从普通状态进入到滑动状态的一个动画，以及此时损失HP，奶茶洒出的动画</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>蓄力发射：
-1.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>蓄力的时长</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>决定了损失的HP：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">HP_Charging_Shoot_Cut </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">= t/t_max * 100 * a1
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.当按下J的时长达到：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Time_Charge_Enter</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>后，才能进入</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>蓄力状态</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，才会开始播放蓄力的动画，蓄力的时长从进入蓄力状态后才开始计时</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.蓄力的时长决定了子弹携带的力度：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Bullet_Power </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">= </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>HP_Charging_Shoot_Cut</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> * a2
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>a1 , a2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 是可调节系数
-5.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 是当前蓄力计时
-6.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">t_max </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>是蓄力允许的最长时间
-7.蓄力期间，角色移动速度下降</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Charging_Speed_Cut
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -1555,6 +1029,604 @@
 1.角色在任意时刻出现在水中，且角色水平静止，则角色的下一个水平方向的输入决定了接下来滑动的方向
 2.角色从平地进入水渍中，则从水渍的这一段滑至另一端
 3.滑动时屏蔽一切操作</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>主角受到任何攻击后都会产生一个短暂的无敌状态，无敌时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">T_unbeatable </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（无敌时间会比硬直时间略长）
+2.无敌状态期间，不会受到任何伤害，也不会进入硬直</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>无敌期间，角色本体的透明度渐变：透明-不透明-透明 周期性变化</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>蓄力发射：
+1.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>蓄力的时长</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>决定了损失的HP：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">HP_Charging_Shoot_Cut </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">= t/t_max * 100 * a1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.当按下J的时长达到：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Time_Charge_Enter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>后，才能进入</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>蓄力状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，才会开始播放蓄力的动画，蓄力的时长从进入蓄力状态后才开始计时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.蓄力的时长决定了子弹携带的力度：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Bullet_Power </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HP_Charging_Shoot_Cut</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * a2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a1 , a2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 是可调节系数
+5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 是当前蓄力计时
+6.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">t_max </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是蓄力允许的最长时间
+7.蓄力期间，角色移动速度下降</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Charging_Speed_Cut
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8.当子弹接触地面，有一定概率：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P_Bullet_MilkGround_Fast</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，在接触的地面上生成一滩奶茶水渍（这个概率会比短按射击高许多）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>单次发射：
+1.每次发射固定损失一定值的HP：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">HP_Shoot_Cut
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.子弹携带的力度：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bullet_Power</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">=HP_Shoot_Cut </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+4.根据当前发射角度发射子弹，发射速度：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Speed_Shoot
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5.子弹携带的伤害：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bullet_Dmg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P_Shoot_Cut</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 是可调节系数
+4.当子弹接触地面，有一定概率：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P_Bullet_MilkGround_Quick</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，在接触的地面上生成一滩奶茶水渍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
     </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -2171,10 +2243,10 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -2201,7 +2273,7 @@
         <v>20</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>21</v>
@@ -2224,7 +2296,7 @@
         <v>28</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="11"/>
@@ -2239,7 +2311,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="11"/>
@@ -2269,7 +2341,7 @@
     </row>
     <row r="6" spans="1:8" ht="64.5" customHeight="1">
       <c r="A6" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>7</v>
@@ -2288,10 +2360,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="11"/>
@@ -2306,7 +2378,7 @@
         <v>17</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="11"/>
@@ -2318,10 +2390,10 @@
         <v>29</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="11"/>
@@ -2332,11 +2404,11 @@
       <c r="B10" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>65</v>
+      <c r="C10" s="19" t="s">
+        <v>66</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="11"/>
@@ -2345,13 +2417,13 @@
     <row r="11" spans="1:8" s="14" customFormat="1" ht="65.400000000000006" customHeight="1">
       <c r="A11" s="23"/>
       <c r="B11" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>32</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>33</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="11"/>
@@ -2360,13 +2432,13 @@
     <row r="12" spans="1:8" s="14" customFormat="1" ht="65.400000000000006" customHeight="1">
       <c r="A12" s="23"/>
       <c r="B12" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="13" t="s">
         <v>38</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>39</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="11"/>
@@ -2388,7 +2460,7 @@
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" spans="1:8" ht="147" customHeight="1">
+    <row r="15" spans="1:8" ht="52.2" customHeight="1">
       <c r="A15" s="23" t="s">
         <v>23</v>
       </c>
@@ -2399,7 +2471,7 @@
         <v>25</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="11"/>
@@ -2414,25 +2486,25 @@
         <v>9</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" spans="1:7" s="14" customFormat="1" ht="112.5" customHeight="1">
+    <row r="17" spans="1:7" s="14" customFormat="1" ht="164.4" customHeight="1">
       <c r="A17" s="23"/>
       <c r="B17" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="11"/>
@@ -2447,7 +2519,7 @@
         <v>68</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="11"/>
@@ -2459,10 +2531,10 @@
         <v>12</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="11"/>
@@ -2476,20 +2548,20 @@
         <v>22</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="12"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
     </row>
-    <row r="21" spans="1:7" ht="111.6" customHeight="1">
+    <row r="21" spans="1:7" ht="27.6" customHeight="1">
       <c r="A21" s="21"/>
       <c r="B21" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="10"/>
@@ -2499,13 +2571,13 @@
     <row r="22" spans="1:7" ht="107.4" customHeight="1">
       <c r="A22" s="21"/>
       <c r="B22" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="13" t="s">
-        <v>48</v>
-      </c>
       <c r="D22" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="11"/>
@@ -2514,13 +2586,13 @@
     <row r="23" spans="1:7" ht="95.4" customHeight="1">
       <c r="A23" s="21"/>
       <c r="B23" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="11"/>
@@ -2540,7 +2612,7 @@
         <v>13</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -2551,10 +2623,10 @@
     <row r="26" spans="1:7" ht="61.8" hidden="1" customHeight="1">
       <c r="A26" s="21"/>
       <c r="B26" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="10"/>
@@ -2564,7 +2636,7 @@
     <row r="27" spans="1:7" ht="62.4" hidden="1" customHeight="1">
       <c r="A27" s="21"/>
       <c r="B27" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>

--- a/1document/功能需求表.xlsx
+++ b/1document/功能需求表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>NAME</t>
   </si>
@@ -208,35 +208,6 @@
   <si>
     <t>1.以3种预设角度：α1，α2，α3的形式调整吸管/水枪的发射角度
 2.按一次↑键，向上调整一次，反之类似。如果已到极限值，再向该方向调整则保持不变（例：如果已经是最低角度，则再按↓无效）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>上下移动发射角度：
-连续地以角速度：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>α</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>°/s来改变子弹发射的仰角</t>
-    </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -1085,6 +1056,410 @@
   </si>
   <si>
     <r>
+      <t>上下移动发射角度：
+1.连续地以角速度：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>α</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>°/s来改变子弹发射的仰角
+2.这样仰角有一个范围，右侧图示：</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recover 恢复</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.当角色奶茶杯开口处接触奶茶，则吸收其奶茶，为自己恢复生命值
+2.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>恢复的生命值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>受</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>回复率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>以及</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>子弹的力量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">影响：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HP_Recover</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Recover_Ratio</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bullet_Power</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>单次发射：
+1.每次发射固定损失一定值的HP：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">HP_Shoot_Cut
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.子弹携带的力度：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bullet_Power</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">=HP_Shoot_Cut </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+4.根据当前发射角度发射子弹，发射速度：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Speed_Shoot
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5.子弹携带的伤害：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bullet_Dmg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P_Shoot_Cut</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 是可调节系数
+4.当子弹接触地面，有一定概率：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P_Bullet_MilkGround_Quick</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，在接触的地面上生成一滩奶茶水渍
+5.发射间隔：也就是一次射击动画的时长，在动画播放完前，不能开始下一次设计
+6.发射至多会将HP消耗到1点，此时仍然可以进行普通发射，但是不能再进行蓄力发射</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>蓄力发射：
 1.</t>
     </r>
@@ -1377,250 +1752,56 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>，在接触的地面上生成一滩奶茶水渍（这个概率会比短按射击高许多）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>单次发射：
-1.每次发射固定损失一定值的HP：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">HP_Shoot_Cut
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2.子弹携带的力度：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bullet_Power</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">=HP_Shoot_Cut </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> a1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-4.根据当前发射角度发射子弹，发射速度：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Speed_Shoot
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5.子弹携带的伤害：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bullet_Dmg</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>P_Shoot_Cut</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> * </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>a2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>a1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>a2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 是可调节系数
-4.当子弹接触地面，有一定概率：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>P_Bullet_MilkGround_Quick</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，在接触的地面上生成一滩奶茶水渍</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
+      <t>，在接触的地面上生成一滩奶茶水渍（这个概率会比短按射击高许多）
+9.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>蓄力的时长</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>与</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>子弹发射速度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>正相关
+10.蓄力发射至多会将HP消耗到1点，此时仍然可以进行普通发射，但是不能再进行蓄力发射</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1953,6 +2134,76 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>1653540</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>1764448</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
@@ -2239,14 +2490,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -2255,7 +2506,7 @@
     <col min="2" max="2" width="16.21875" style="1" customWidth="1"/>
     <col min="3" max="3" width="66" style="4" customWidth="1"/>
     <col min="4" max="4" width="55.21875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="18.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.5546875" style="1" customWidth="1"/>
     <col min="8" max="8" width="39.88671875" style="1" customWidth="1"/>
@@ -2273,7 +2524,7 @@
         <v>20</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>21</v>
@@ -2293,10 +2544,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="11"/>
@@ -2311,7 +2562,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="11"/>
@@ -2320,10 +2571,10 @@
     <row r="4" spans="1:8" ht="34.5" customHeight="1">
       <c r="A4" s="23"/>
       <c r="B4" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>26</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>27</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="10"/>
@@ -2341,7 +2592,7 @@
     </row>
     <row r="6" spans="1:8" ht="64.5" customHeight="1">
       <c r="A6" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>7</v>
@@ -2360,10 +2611,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>63</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>64</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="11"/>
@@ -2378,7 +2629,7 @@
         <v>17</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="11"/>
@@ -2387,13 +2638,13 @@
     <row r="9" spans="1:8" s="14" customFormat="1" ht="52.5" customHeight="1">
       <c r="A9" s="23"/>
       <c r="B9" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="11"/>
@@ -2402,13 +2653,13 @@
     <row r="10" spans="1:8" s="14" customFormat="1" ht="53.4" customHeight="1">
       <c r="A10" s="23"/>
       <c r="B10" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>66</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>67</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="11"/>
@@ -2417,13 +2668,13 @@
     <row r="11" spans="1:8" s="14" customFormat="1" ht="65.400000000000006" customHeight="1">
       <c r="A11" s="23"/>
       <c r="B11" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>31</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>32</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="11"/>
@@ -2432,13 +2683,13 @@
     <row r="12" spans="1:8" s="14" customFormat="1" ht="65.400000000000006" customHeight="1">
       <c r="A12" s="23"/>
       <c r="B12" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="13" t="s">
         <v>37</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>38</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="11"/>
@@ -2446,207 +2697,213 @@
     </row>
     <row r="13" spans="1:8" s="14" customFormat="1" ht="65.400000000000006" customHeight="1">
       <c r="A13" s="23"/>
+      <c r="B13" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>69</v>
+      </c>
       <c r="D13" s="13"/>
       <c r="E13" s="12"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" s="14" customFormat="1" ht="65.400000000000006" customHeight="1">
       <c r="A14" s="23"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="10"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="12"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" spans="1:8" ht="52.2" customHeight="1">
-      <c r="A15" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>53</v>
-      </c>
+    <row r="15" spans="1:8">
+      <c r="A15" s="23"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
       <c r="E15" s="10"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
-      <c r="H15" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="135.6" customHeight="1">
-      <c r="A16" s="23"/>
+    </row>
+    <row r="16" spans="1:8" ht="146.4" customHeight="1">
+      <c r="A16" s="23" t="s">
+        <v>23</v>
+      </c>
       <c r="B16" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
-    </row>
-    <row r="17" spans="1:7" s="14" customFormat="1" ht="164.4" customHeight="1">
+      <c r="H16" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="135.6" customHeight="1">
       <c r="A17" s="23"/>
-      <c r="B17" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="12"/>
+      <c r="B17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="10"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" spans="1:7" s="14" customFormat="1" ht="209.4" customHeight="1">
+    <row r="18" spans="1:7" s="14" customFormat="1" ht="194.4" customHeight="1">
       <c r="A18" s="23"/>
       <c r="B18" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" spans="1:7" s="14" customFormat="1" ht="116.4" customHeight="1">
+    <row r="19" spans="1:7" s="14" customFormat="1" ht="255.6" customHeight="1">
       <c r="A19" s="23"/>
-      <c r="B19" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>60</v>
+      <c r="B19" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" spans="1:7" s="14" customFormat="1" ht="124.5" customHeight="1">
-      <c r="A20" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="13"/>
+    <row r="20" spans="1:7" s="14" customFormat="1" ht="116.4" customHeight="1">
+      <c r="A20" s="23"/>
+      <c r="B20" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>48</v>
+      </c>
       <c r="E20" s="12"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
     </row>
-    <row r="21" spans="1:7" ht="27.6" customHeight="1">
-      <c r="A21" s="21"/>
-      <c r="B21" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="10"/>
+    <row r="21" spans="1:7" s="14" customFormat="1" ht="124.5" customHeight="1">
+      <c r="A21" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="12"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" spans="1:7" ht="107.4" customHeight="1">
+    <row r="22" spans="1:7" ht="27.6" customHeight="1">
       <c r="A22" s="21"/>
-      <c r="B22" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="13" t="s">
+      <c r="B22" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="13" t="s">
-        <v>50</v>
-      </c>
+      <c r="D22" s="9"/>
       <c r="E22" s="10"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" spans="1:7" ht="95.4" customHeight="1">
+    <row r="23" spans="1:7" ht="107.4" customHeight="1">
       <c r="A23" s="21"/>
-      <c r="B23" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>57</v>
+      <c r="B23" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="22"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
+    <row r="24" spans="1:7" ht="95.4" customHeight="1">
+      <c r="A24" s="21"/>
+      <c r="B24" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="E24" s="10"/>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" spans="1:7" ht="147" hidden="1" customHeight="1">
-      <c r="A25" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>42</v>
-      </c>
+    <row r="25" spans="1:7">
+      <c r="A25" s="22"/>
+      <c r="B25" s="10"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="10"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" spans="1:7" ht="61.8" hidden="1" customHeight="1">
-      <c r="A26" s="21"/>
+    <row r="26" spans="1:7" ht="147" hidden="1" customHeight="1">
+      <c r="A26" s="20" t="s">
+        <v>13</v>
+      </c>
       <c r="B26" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>43</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="10"/>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" spans="1:7" ht="62.4" hidden="1" customHeight="1">
+    <row r="27" spans="1:7" ht="61.8" hidden="1" customHeight="1">
       <c r="A27" s="21"/>
       <c r="B27" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="9"/>
+        <v>38</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>42</v>
+      </c>
       <c r="D27" s="9"/>
       <c r="E27" s="10"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" spans="1:7" hidden="1">
+    <row r="28" spans="1:7" ht="62.4" hidden="1" customHeight="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="10"/>
+      <c r="B28" s="10" t="s">
+        <v>40</v>
+      </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
       <c r="E28" s="10"/>
@@ -2699,7 +2956,7 @@
       <c r="G33" s="11"/>
     </row>
     <row r="34" spans="1:7" hidden="1">
-      <c r="A34" s="22"/>
+      <c r="A34" s="21"/>
       <c r="B34" s="10"/>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -2707,21 +2964,59 @@
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
     </row>
-    <row r="35" spans="1:7">
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
+    <row r="35" spans="1:7" hidden="1">
+      <c r="A35" s="22"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="A16:A20"/>
     <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A14"/>
-    <mergeCell ref="A25:A34"/>
+    <mergeCell ref="A6:A15"/>
+    <mergeCell ref="A26:A35"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.15" shapeId="1025" r:id="rId4">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1653540</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>1767840</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.15" shapeId="1025" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
 </worksheet>
 </file>
 

--- a/1document/功能需求表.xlsx
+++ b/1document/功能需求表.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN" sheetId="1" r:id="rId1"/>
     <sheet name="STATS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="101">
   <si>
     <t>NAME</t>
   </si>
@@ -72,7 +72,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -82,7 +82,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -94,7 +94,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -104,7 +104,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -115,7 +115,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -125,7 +125,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -136,7 +136,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -146,7 +146,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -165,7 +165,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -175,7 +175,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -224,7 +224,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -234,7 +234,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -245,7 +245,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -255,7 +255,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -320,7 +320,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -331,7 +331,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -360,7 +360,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -371,7 +371,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -382,7 +382,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -393,7 +393,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -404,7 +404,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -455,201 +455,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>判断角色受到攻击时是否会被击倒：
-1.这个判断取决于以下3个参数：受击点高度（相对于杯底）：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>h_ATKed</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、子弹携带力度：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bullet_Power</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、受击角色当前</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>HP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、奶茶杯高度</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>H</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-2.判断：当</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bullet_Power</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> * </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>h_ATKed</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>HP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">/100 * </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>H</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) &gt;= HP  时，角色被击倒，反之，角色不会被击倒
-3.角色被击倒后，固定损失HP：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>HP_Fall_Cut</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>Slide
 水渍中滑动</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -669,7 +474,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -679,7 +484,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -690,7 +495,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -701,7 +506,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -711,7 +516,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -723,7 +528,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -733,7 +538,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -745,7 +550,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -756,7 +561,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -767,7 +572,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -779,7 +584,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -790,7 +595,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -801,7 +606,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -823,7 +628,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -833,7 +638,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -844,7 +649,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -854,7 +659,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -865,7 +670,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -875,7 +680,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -889,7 +694,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -900,7 +705,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -928,7 +733,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -938,7 +743,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -949,7 +754,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -960,7 +765,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -981,7 +786,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -992,7 +797,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1008,7 +813,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1019,7 +824,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1030,7 +835,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1040,7 +845,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1064,7 +869,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1075,7 +880,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1089,6 +894,621 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>Bullet_Power=HP_Shoot_Cut * a1</t>
+  </si>
+  <si>
+    <t>HP_Charging_Shoot_Cut = t/t_max * 100 * a1</t>
+  </si>
+  <si>
+    <t>普通攻击</t>
+  </si>
+  <si>
+    <t>蓄力攻击</t>
+  </si>
+  <si>
+    <t>Bullet_Power = HP_Charging_Shoot_Cut * a2</t>
+  </si>
+  <si>
+    <t>Bullet_Dmg=HP_Charging_Shoot_Cut  * a3</t>
+  </si>
+  <si>
+    <r>
+      <t>蓄力发射：
+1.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>蓄力的时长</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>决定了损失的HP：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">HP_Charging_Shoot_Cut </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">= t/t_max * 100 * a1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.当按下J的时长达到：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Time_Charge_Enter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>后，才能进入</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>蓄力状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，才会开始播放蓄力的动画，蓄力的时长从进入蓄力状态后才开始计时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.蓄力的时长决定了子弹携带的力度：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Bullet_Power </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HP_Charging_Shoot_Cut</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * a2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a1 , a2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 是可调节系数
+5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 是当前蓄力计时
+6.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">t_max </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是蓄力允许的最长时间
+7.蓄力期间，角色移动速度下降</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Charging_Speed_Cut
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8.当子弹接触地面，有一定概率：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P_Bullet_MilkGround_Fast</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，在接触的地面上生成一滩奶茶水渍（这个概率会比短按射击高许多）
+9.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>蓄力的时长</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>与</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>子弹发射速度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>正相关
+10.蓄力发射至多会将HP消耗到1点，此时仍然可以进行普通发射，但是不能再进行蓄力发射
+11.蓄力攻击伤害：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Bullet_Dmg </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HP_Charging_Shoot_Cut</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  * </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>判断角色受到攻击时是否会被击倒：
+1.这个判断取决于以下3个参数：受击点高度（相对于杯底）：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>h_ATKed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、子弹携带力度：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bullet_Power</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、受击角色当前</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、奶茶杯高度</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2.判断：当</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bullet_Power</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>h_ATKed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">/100 * </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) &gt;= HP  时，角色被击倒，反之，角色不会被击倒
+3.角色被击倒后，固定损失HP：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HP_Fall_Cut</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t>1.当角色奶茶杯开口处接触奶茶，则吸收其奶茶，为自己恢复生命值
 2.</t>
@@ -1098,7 +1518,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1109,7 +1529,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1120,7 +1540,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1131,7 +1551,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1142,7 +1562,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1153,7 +1573,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1165,7 +1585,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1176,7 +1596,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1187,7 +1607,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1198,7 +1618,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1209,14 +1629,46 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Bullet_Power</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Bullet_Power * h_ATKed/(HP/100 * H) &gt;= HP  </t>
+  </si>
+  <si>
+    <t>生命恢复</t>
+  </si>
+  <si>
+    <t>HP_Recover = Recover_Ratio * Bullet_Power</t>
+  </si>
+  <si>
+    <t>基础</t>
+  </si>
+  <si>
+    <t>HP_Max=100</t>
+  </si>
+  <si>
+    <t>对手</t>
+  </si>
+  <si>
+    <t>当前HP</t>
+  </si>
+  <si>
+    <t>HP_Shoot_Cut</t>
+  </si>
+  <si>
+    <t>a1</t>
+  </si>
+  <si>
+    <t>己方</t>
+  </si>
+  <si>
+    <t>Bullet_Dmg=HP_Shoot_Cut * a2</t>
   </si>
   <si>
     <r>
@@ -1227,7 +1679,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1237,7 +1689,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1247,7 +1699,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1257,7 +1709,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1266,7 +1718,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1277,7 +1729,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1287,7 +1739,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1298,7 +1750,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1308,7 +1760,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1319,7 +1771,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1329,7 +1781,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1340,17 +1792,27 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>P_Shoot_Cut</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_Shoot_Cut</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1361,7 +1823,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1371,7 +1833,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1383,7 +1845,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1393,7 +1855,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1404,7 +1866,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1414,7 +1876,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1426,7 +1888,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1436,7 +1898,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1449,392 +1911,74 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
 </t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>蓄力发射：
-1.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>蓄力的时长</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>决定了损失的HP：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">HP_Charging_Shoot_Cut </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">= t/t_max * 100 * a1
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.当按下J的时长达到：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Time_Charge_Enter</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>后，才能进入</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>蓄力状态</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，才会开始播放蓄力的动画，蓄力的时长从进入蓄力状态后才开始计时</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.蓄力的时长决定了子弹携带的力度：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Bullet_Power </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">= </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>HP_Charging_Shoot_Cut</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> * a2
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>a1 , a2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 是可调节系数
-5.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 是当前蓄力计时
-6.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">t_max </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>是蓄力允许的最长时间
-7.蓄力期间，角色移动速度下降</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Charging_Speed_Cut
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>8.当子弹接触地面，有一定概率：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>P_Bullet_MilkGround_Fast</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，在接触的地面上生成一滩奶茶水渍（这个概率会比短按射击高许多）
-9.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>蓄力的时长</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>与</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>子弹发射速度</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>正相关
-10.蓄力发射至多会将HP消耗到1点，此时仍然可以进行普通发射，但是不能再进行蓄力发射</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet_Power</t>
+  </si>
+  <si>
+    <t>Bullet_Dmg</t>
+  </si>
+  <si>
+    <t>a2</t>
+  </si>
+  <si>
+    <t>a3</t>
+  </si>
+  <si>
+    <t>t/t_max</t>
+  </si>
+  <si>
+    <t>HP_Charging_Shoot_Cut</t>
+  </si>
+  <si>
+    <t>h_ATKed/H</t>
+  </si>
+  <si>
+    <t>100/HP</t>
+  </si>
+  <si>
+    <t>K1</t>
+  </si>
+  <si>
+    <t>K2</t>
+  </si>
+  <si>
+    <t>isBeaten_to_Fall_Normal</t>
+  </si>
+  <si>
+    <t>isBeaten_to_Fall_Charge</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1842,7 +1986,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1850,7 +1994,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1858,26 +2002,26 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1886,7 +2030,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1894,7 +2038,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1902,7 +2046,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1910,7 +2054,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1918,14 +2062,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1933,13 +2077,28 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1951,8 +2110,37 @@
         <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2040,12 +2228,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2104,6 +2333,38 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2116,10 +2377,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="注释" xfId="1" builtinId="10"/>
+  <cellStyles count="4">
+    <cellStyle name="Check Cell" xfId="3" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="2" builtinId="20"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -2147,9 +2428,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>1653540</xdr:colOff>
+          <xdr:colOff>1657350</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>1764448</xdr:rowOff>
+          <xdr:rowOff>1771650</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2177,23 +2458,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2205,7 +2473,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2493,24 +2761,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="2"/>
-    <col min="2" max="2" width="16.21875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="16.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="66" style="4" customWidth="1"/>
-    <col min="4" max="4" width="55.21875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="25.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="39.88671875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="1"/>
+    <col min="4" max="4" width="55.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="39.85546875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" ht="36" customHeight="1">
@@ -2537,7 +2805,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="69" customHeight="1">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="35" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -2554,7 +2822,7 @@
       <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:8" ht="34.5" customHeight="1">
-      <c r="A3" s="23"/>
+      <c r="A3" s="35"/>
       <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
@@ -2569,7 +2837,7 @@
       <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:8" ht="34.5" customHeight="1">
-      <c r="A4" s="23"/>
+      <c r="A4" s="35"/>
       <c r="B4" s="15" t="s">
         <v>25</v>
       </c>
@@ -2582,7 +2850,7 @@
       <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="23"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="10"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -2591,7 +2859,7 @@
       <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:8" ht="64.5" customHeight="1">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="35" t="s">
         <v>44</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -2606,22 +2874,22 @@
       <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:8" ht="57" customHeight="1">
-      <c r="A7" s="23"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>63</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:8" ht="52.5" customHeight="1">
-      <c r="A8" s="23"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="10" t="s">
         <v>16</v>
       </c>
@@ -2636,7 +2904,7 @@
       <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:8" s="14" customFormat="1" ht="52.5" customHeight="1">
-      <c r="A9" s="23"/>
+      <c r="A9" s="35"/>
       <c r="B9" s="12" t="s">
         <v>28</v>
       </c>
@@ -2650,28 +2918,28 @@
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" spans="1:8" s="14" customFormat="1" ht="53.4" customHeight="1">
-      <c r="A10" s="23"/>
+    <row r="10" spans="1:8" s="14" customFormat="1" ht="53.45" customHeight="1">
+      <c r="A10" s="35"/>
       <c r="B10" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C10" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>65</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>66</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" spans="1:8" s="14" customFormat="1" ht="65.400000000000006" customHeight="1">
-      <c r="A11" s="23"/>
+    <row r="11" spans="1:8" s="14" customFormat="1" ht="65.45" customHeight="1">
+      <c r="A11" s="35"/>
       <c r="B11" s="12" t="s">
         <v>30</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>31</v>
@@ -2680,8 +2948,8 @@
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" spans="1:8" s="14" customFormat="1" ht="65.400000000000006" customHeight="1">
-      <c r="A12" s="23"/>
+    <row r="12" spans="1:8" s="14" customFormat="1" ht="65.45" customHeight="1">
+      <c r="A12" s="35"/>
       <c r="B12" s="12" t="s">
         <v>36</v>
       </c>
@@ -2695,21 +2963,21 @@
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" spans="1:8" s="14" customFormat="1" ht="65.400000000000006" customHeight="1">
-      <c r="A13" s="23"/>
+    <row r="13" spans="1:8" s="14" customFormat="1" ht="65.45" customHeight="1">
+      <c r="A13" s="35"/>
       <c r="B13" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="12"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" spans="1:8" s="14" customFormat="1" ht="65.400000000000006" customHeight="1">
-      <c r="A14" s="23"/>
+    <row r="14" spans="1:8" s="14" customFormat="1" ht="65.45" customHeight="1">
+      <c r="A14" s="35"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
       <c r="D14" s="13"/>
@@ -2718,7 +2986,7 @@
       <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="23"/>
+      <c r="A15" s="35"/>
       <c r="B15" s="10"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -2726,15 +2994,15 @@
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" spans="1:8" ht="146.4" customHeight="1">
-      <c r="A16" s="23" t="s">
+    <row r="16" spans="1:8" ht="146.44999999999999" customHeight="1">
+      <c r="A16" s="35" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>52</v>
@@ -2747,27 +3015,27 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="135.6" customHeight="1">
-      <c r="A17" s="23"/>
+      <c r="A17" s="35"/>
       <c r="B17" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>58</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" spans="1:7" s="14" customFormat="1" ht="194.4" customHeight="1">
-      <c r="A18" s="23"/>
+    <row r="18" spans="1:7" s="14" customFormat="1" ht="194.45" customHeight="1">
+      <c r="A18" s="35"/>
       <c r="B18" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>50</v>
@@ -2776,28 +3044,28 @@
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" spans="1:7" s="14" customFormat="1" ht="255.6" customHeight="1">
-      <c r="A19" s="23"/>
+    <row r="19" spans="1:7" s="14" customFormat="1" ht="301.5" customHeight="1">
+      <c r="A19" s="35"/>
       <c r="B19" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" spans="1:7" s="14" customFormat="1" ht="116.4" customHeight="1">
-      <c r="A20" s="23"/>
+    <row r="20" spans="1:7" s="14" customFormat="1" ht="116.45" customHeight="1">
+      <c r="A20" s="35"/>
       <c r="B20" s="17" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>48</v>
@@ -2807,14 +3075,14 @@
       <c r="G20" s="11"/>
     </row>
     <row r="21" spans="1:7" s="14" customFormat="1" ht="124.5" customHeight="1">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="32" t="s">
         <v>2</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="12"/>
@@ -2822,7 +3090,7 @@
       <c r="G21" s="11"/>
     </row>
     <row r="22" spans="1:7" ht="27.6" customHeight="1">
-      <c r="A22" s="21"/>
+      <c r="A22" s="33"/>
       <c r="B22" s="10" t="s">
         <v>33</v>
       </c>
@@ -2834,8 +3102,8 @@
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" spans="1:7" ht="107.4" customHeight="1">
-      <c r="A23" s="21"/>
+    <row r="23" spans="1:7" ht="107.45" customHeight="1">
+      <c r="A23" s="33"/>
       <c r="B23" s="12" t="s">
         <v>45</v>
       </c>
@@ -2849,23 +3117,23 @@
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" spans="1:7" ht="95.4" customHeight="1">
-      <c r="A24" s="21"/>
+    <row r="24" spans="1:7" ht="95.45" customHeight="1">
+      <c r="A24" s="33"/>
       <c r="B24" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="9" t="s">
         <v>55</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>56</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="22"/>
+      <c r="A25" s="34"/>
       <c r="B25" s="10"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -2874,7 +3142,7 @@
       <c r="G25" s="11"/>
     </row>
     <row r="26" spans="1:7" ht="147" hidden="1" customHeight="1">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="32" t="s">
         <v>13</v>
       </c>
       <c r="B26" s="10" t="s">
@@ -2886,8 +3154,8 @@
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" spans="1:7" ht="61.8" hidden="1" customHeight="1">
-      <c r="A27" s="21"/>
+    <row r="27" spans="1:7" ht="61.9" hidden="1" customHeight="1">
+      <c r="A27" s="33"/>
       <c r="B27" s="10" t="s">
         <v>38</v>
       </c>
@@ -2899,8 +3167,8 @@
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" spans="1:7" ht="62.4" hidden="1" customHeight="1">
-      <c r="A28" s="21"/>
+    <row r="28" spans="1:7" ht="62.45" hidden="1" customHeight="1">
+      <c r="A28" s="33"/>
       <c r="B28" s="10" t="s">
         <v>40</v>
       </c>
@@ -2911,7 +3179,7 @@
       <c r="G28" s="11"/>
     </row>
     <row r="29" spans="1:7" hidden="1">
-      <c r="A29" s="21"/>
+      <c r="A29" s="33"/>
       <c r="B29" s="10"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -2920,7 +3188,7 @@
       <c r="G29" s="11"/>
     </row>
     <row r="30" spans="1:7" hidden="1">
-      <c r="A30" s="21"/>
+      <c r="A30" s="33"/>
       <c r="B30" s="10"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -2929,7 +3197,7 @@
       <c r="G30" s="11"/>
     </row>
     <row r="31" spans="1:7" hidden="1">
-      <c r="A31" s="21"/>
+      <c r="A31" s="33"/>
       <c r="B31" s="10"/>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
@@ -2938,7 +3206,7 @@
       <c r="G31" s="11"/>
     </row>
     <row r="32" spans="1:7" hidden="1">
-      <c r="A32" s="21"/>
+      <c r="A32" s="33"/>
       <c r="B32" s="10"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -2947,7 +3215,7 @@
       <c r="G32" s="11"/>
     </row>
     <row r="33" spans="1:7" hidden="1">
-      <c r="A33" s="21"/>
+      <c r="A33" s="33"/>
       <c r="B33" s="10"/>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -2956,7 +3224,7 @@
       <c r="G33" s="11"/>
     </row>
     <row r="34" spans="1:7" hidden="1">
-      <c r="A34" s="21"/>
+      <c r="A34" s="33"/>
       <c r="B34" s="10"/>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -2965,7 +3233,7 @@
       <c r="G34" s="11"/>
     </row>
     <row r="35" spans="1:7" hidden="1">
-      <c r="A35" s="22"/>
+      <c r="A35" s="34"/>
       <c r="B35" s="10"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
@@ -3004,9 +3272,9 @@
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>1653540</xdr:colOff>
+                <xdr:colOff>1657350</xdr:colOff>
                 <xdr:row>15</xdr:row>
-                <xdr:rowOff>1767840</xdr:rowOff>
+                <xdr:rowOff>1771650</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -3022,15 +3290,443 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="65.42578125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="23"/>
+    <col min="6" max="6" width="9.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.85546875" style="23" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="23"/>
+    <col min="10" max="11" width="9.140625" style="21"/>
+    <col min="12" max="12" width="11.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="21"/>
+    <col min="14" max="14" width="9.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="D1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="H1" s="20"/>
+      <c r="J1" s="25"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="H2" s="20"/>
+      <c r="J2" s="25"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="36"/>
+      <c r="D3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="H3" s="20"/>
+      <c r="J3" s="25"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="D4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="H4" s="20"/>
+      <c r="J4" s="25"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="24">
+        <v>3</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="H5" s="20">
+        <f>$D$5*$F$5</f>
+        <v>1.5</v>
+      </c>
+      <c r="J5" s="25"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="36"/>
+      <c r="D6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="H6" s="20"/>
+      <c r="J6" s="25"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="36"/>
+      <c r="D7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="H7" s="20"/>
+      <c r="J7" s="25"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="36"/>
+      <c r="D8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="H8" s="20"/>
+      <c r="J8" s="25"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="36"/>
+      <c r="B9" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="24"/>
+      <c r="E9" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" s="20">
+        <f>$F$9*$D$5</f>
+        <v>4.5</v>
+      </c>
+      <c r="J9" s="25"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="36"/>
+      <c r="D10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="20"/>
+      <c r="J10" s="25"/>
+    </row>
+    <row r="11" spans="1:10" ht="79.5" customHeight="1">
+      <c r="D11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="H11" s="20"/>
+      <c r="J11" s="25"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="24">
+        <v>1</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="H12" s="20">
+        <f>$D$12*$F$12*100</f>
+        <v>20</v>
+      </c>
+      <c r="J12" s="25"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="36"/>
+      <c r="D13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="H13" s="20"/>
+      <c r="J13" s="25"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="36"/>
+      <c r="B14" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="24"/>
+      <c r="E14" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="H14" s="20">
+        <f>$H$12*$F$14</f>
+        <v>30</v>
+      </c>
+      <c r="J14" s="25"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="36"/>
+      <c r="D15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="H15" s="20"/>
+      <c r="J15" s="25"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="36"/>
+      <c r="B16" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="24"/>
+      <c r="E16" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="20">
+        <f>$F$16*$H$12</f>
+        <v>30</v>
+      </c>
+      <c r="J16" s="25"/>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="36"/>
+      <c r="D17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="20"/>
+      <c r="J17" s="25"/>
+    </row>
+    <row r="18" spans="1:16" ht="81" customHeight="1">
+      <c r="D18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="H18" s="20"/>
+      <c r="J18" s="25"/>
+    </row>
+    <row r="19" spans="1:16" ht="51" customHeight="1">
+      <c r="A19" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="24">
+        <v>1</v>
+      </c>
+      <c r="F19" s="24"/>
+      <c r="G19" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="H19" s="20" t="str">
+        <f>IF($D$19*$D$20*$H$5&gt;=$O$27,"TRUE","FALSE")</f>
+        <v>FALSE</v>
+      </c>
+      <c r="K19" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="L19" s="20">
+        <f>$D$19*$D$20*$H$5</f>
+        <v>3</v>
+      </c>
+      <c r="M19" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="N19" s="37">
+        <f>$O$27</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="61.5" customHeight="1">
+      <c r="A20" s="36"/>
+      <c r="C20" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="20">
+        <f>100/$O$27</f>
+        <v>2</v>
+      </c>
+      <c r="F20" s="24"/>
+      <c r="G20" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="H20" s="20" t="str">
+        <f>IF($D$19*$D$20*$H$14&gt;=$O$27,"TRUE","FALSE")</f>
+        <v>TRUE</v>
+      </c>
+      <c r="J20" s="25"/>
+      <c r="K20" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="L20" s="20">
+        <f>$D$19*$D$20*$H$14</f>
+        <v>60</v>
+      </c>
+      <c r="M20" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="N20" s="38"/>
+    </row>
+    <row r="21" spans="1:16" ht="84" customHeight="1">
+      <c r="D21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="H21" s="20"/>
+      <c r="J21" s="25"/>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="H22" s="20"/>
+      <c r="J22" s="25"/>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="36"/>
+      <c r="D23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="H23" s="20"/>
+      <c r="J23" s="25"/>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="K24" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="39"/>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="39"/>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="K27" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="L27" s="41">
+        <v>80</v>
+      </c>
+      <c r="M27" s="41"/>
+      <c r="N27" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="O27" s="40">
+        <v>50</v>
+      </c>
+      <c r="P27" s="40"/>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="K28" s="23"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="K29" s="23"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="36"/>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="K30" s="23"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="36"/>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="K31" s="23"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="36"/>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="K32" s="23"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="25"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="K24:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N24:P26"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="O28:P28"/>
+  </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/1document/功能需求表.xlsx
+++ b/1document/功能需求表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="137">
   <si>
     <t>NAME</t>
   </si>
@@ -59,9 +59,6 @@
   <si>
     <t>P1：Space 空格
 P2：NumPad_0  小键盘0</t>
-  </si>
-  <si>
-    <t>游戏运行流程逻辑</t>
   </si>
   <si>
     <t>玩家能够自由操控主角运动的普通状态</t>
@@ -1644,9 +1641,6 @@
     <t>生命恢复</t>
   </si>
   <si>
-    <t>HP_Recover = Recover_Ratio * Bullet_Power</t>
-  </si>
-  <si>
     <t>基础</t>
   </si>
   <si>
@@ -1954,13 +1948,129 @@
   </si>
   <si>
     <t>isBeaten_to_Fall_Charge</t>
+  </si>
+  <si>
+    <t>Recover_Ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP_Recover = Recover_Ratio * HP_Shoot_Cut </t>
+  </si>
+  <si>
+    <t>HP_Recover</t>
+  </si>
+  <si>
+    <t>selfDamagePerAttack</t>
+  </si>
+  <si>
+    <t>Define:selfDamagePerAttack</t>
+  </si>
+  <si>
+    <t>Still Con Time  硬直时间</t>
+  </si>
+  <si>
+    <t>脚本</t>
+  </si>
+  <si>
+    <t>Move Speed 移动速度</t>
+  </si>
+  <si>
+    <t>Walk DMG Per Second</t>
+  </si>
+  <si>
+    <t>Define</t>
+  </si>
+  <si>
+    <t>Attack Interval 攻击间隔</t>
+  </si>
+  <si>
+    <t>Straw 1</t>
+  </si>
+  <si>
+    <t>Change Angle Per Fr   转角速度</t>
+  </si>
+  <si>
+    <t>Time charge enter  最小蓄力进入时间</t>
+  </si>
+  <si>
+    <t>T_Max  最大蓄力时间、</t>
+  </si>
+  <si>
+    <t>Jump Force 跳跃力</t>
+  </si>
+  <si>
+    <t>参数</t>
+  </si>
+  <si>
+    <t>值</t>
+  </si>
+  <si>
+    <t>knockDownDamage 击倒损失HP</t>
+  </si>
+  <si>
+    <t>strawMaxAngle 吸管最大角度</t>
+  </si>
+  <si>
+    <t>Chararter
+control</t>
+  </si>
+  <si>
+    <t>T_unbeatable 无敌时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ChangeWater </t>
+  </si>
+  <si>
+    <t>Con Time 水渍持续时间</t>
+  </si>
+  <si>
+    <t>beginGravity 起跳重力</t>
+  </si>
+  <si>
+    <t>changeGravityInterval重力开始改变时间</t>
+  </si>
+  <si>
+    <t>delayGrivaty 改变后重力</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>控制HP量影响速度的参数？？？？？</t>
+  </si>
+  <si>
+    <t>蓄力损失HP的参数？？？？</t>
+  </si>
+  <si>
+    <t>击倒判定相关的参数？？？</t>
+  </si>
+  <si>
+    <t>生成水渍概率？？？</t>
+  </si>
+  <si>
+    <t>selfDamagePerAttackA1 duanan子弹携带力度 a1</t>
+  </si>
+  <si>
+    <t>selfDamagePerAttackA2 duanna子弹携带力度 a2</t>
+  </si>
+  <si>
+    <t>repel 击退</t>
+  </si>
+  <si>
+    <t>1.角色被击中时，会被击退</t>
+  </si>
+  <si>
+    <t>1.角色可以站在平台上
+2.子弹不受平台的影响</t>
+  </si>
+  <si>
+    <t>站立平台</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2097,8 +2207,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2139,8 +2273,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -2193,43 +2333,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -2267,14 +2370,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2333,7 +2445,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="3" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2345,7 +2457,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2365,22 +2477,48 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2389,10 +2527,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2423,13 +2564,13 @@
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>15</xdr:row>
+          <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>1657350</xdr:colOff>
-          <xdr:row>15</xdr:row>
+          <xdr:row>16</xdr:row>
           <xdr:rowOff>1771650</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2759,13 +2900,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2781,7 +2922,7 @@
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="36" customHeight="1">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="36" customHeight="1">
       <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
@@ -2789,68 +2930,68 @@
         <v>0</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="F1" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="69" customHeight="1">
-      <c r="A2" s="35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="69" customHeight="1">
+      <c r="A2" s="43" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:8" ht="34.5" customHeight="1">
-      <c r="A3" s="35"/>
+    <row r="3" spans="1:7" ht="34.5" customHeight="1">
+      <c r="A3" s="43"/>
       <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:8" ht="34.5" customHeight="1">
-      <c r="A4" s="35"/>
+    <row r="4" spans="1:7" ht="34.5" customHeight="1">
+      <c r="A4" s="43"/>
       <c r="B4" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>25</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>26</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="10"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="35"/>
+    <row r="5" spans="1:7">
+      <c r="A5" s="43"/>
       <c r="B5" s="10"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -2858,337 +2999,343 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:8" ht="64.5" customHeight="1">
-      <c r="A6" s="35" t="s">
-        <v>44</v>
+    <row r="6" spans="1:7" ht="64.5" customHeight="1">
+      <c r="A6" s="43" t="s">
+        <v>43</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="10"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:8" ht="57" customHeight="1">
-      <c r="A7" s="35"/>
+    <row r="7" spans="1:7" ht="57" customHeight="1">
+      <c r="A7" s="43"/>
       <c r="B7" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>62</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:8" ht="52.5" customHeight="1">
-      <c r="A8" s="35"/>
+    <row r="8" spans="1:7" ht="52.5" customHeight="1">
+      <c r="A8" s="43"/>
       <c r="B8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>17</v>
-      </c>
       <c r="D8" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" spans="1:8" s="14" customFormat="1" ht="52.5" customHeight="1">
-      <c r="A9" s="35"/>
+    <row r="9" spans="1:7" s="14" customFormat="1" ht="52.5" customHeight="1">
+      <c r="A9" s="43"/>
       <c r="B9" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" spans="1:8" s="14" customFormat="1" ht="53.45" customHeight="1">
-      <c r="A10" s="35"/>
+    <row r="10" spans="1:7" s="14" customFormat="1" ht="53.45" customHeight="1">
+      <c r="A10" s="43"/>
       <c r="B10" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>64</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>65</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" spans="1:8" s="14" customFormat="1" ht="65.45" customHeight="1">
-      <c r="A11" s="35"/>
+    <row r="11" spans="1:7" s="14" customFormat="1" ht="65.45" customHeight="1">
+      <c r="A11" s="43"/>
       <c r="B11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>30</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>31</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" spans="1:8" s="14" customFormat="1" ht="65.45" customHeight="1">
-      <c r="A12" s="35"/>
+    <row r="12" spans="1:7" s="14" customFormat="1" ht="65.45" customHeight="1">
+      <c r="A12" s="43"/>
       <c r="B12" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="13" t="s">
         <v>36</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>37</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" spans="1:8" s="14" customFormat="1" ht="65.45" customHeight="1">
-      <c r="A13" s="35"/>
+    <row r="13" spans="1:7" s="14" customFormat="1" ht="65.45" customHeight="1">
+      <c r="A13" s="43"/>
       <c r="B13" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="12"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" spans="1:8" s="14" customFormat="1" ht="65.45" customHeight="1">
-      <c r="A14" s="35"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
+    <row r="14" spans="1:7" s="14" customFormat="1" ht="65.45" customHeight="1">
+      <c r="A14" s="43"/>
+      <c r="B14" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>134</v>
+      </c>
       <c r="D14" s="13"/>
       <c r="E14" s="12"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="35"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10"/>
+    <row r="15" spans="1:7" s="14" customFormat="1" ht="65.45" customHeight="1">
+      <c r="A15" s="43"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="12"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" spans="1:8" ht="146.44999999999999" customHeight="1">
-      <c r="A16" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>52</v>
-      </c>
+    <row r="16" spans="1:7">
+      <c r="A16" s="43"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
       <c r="E16" s="10"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
-      <c r="H16" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="135.6" customHeight="1">
-      <c r="A17" s="35"/>
+    </row>
+    <row r="17" spans="1:8" ht="146.44999999999999" customHeight="1">
+      <c r="A17" s="43" t="s">
+        <v>22</v>
+      </c>
       <c r="B17" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
-    </row>
-    <row r="18" spans="1:7" s="14" customFormat="1" ht="194.45" customHeight="1">
-      <c r="A18" s="35"/>
-      <c r="B18" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="12"/>
+      <c r="H17" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="135.6" customHeight="1">
+      <c r="A18" s="43"/>
+      <c r="B18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="10"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" spans="1:7" s="14" customFormat="1" ht="301.5" customHeight="1">
-      <c r="A19" s="35"/>
+    <row r="19" spans="1:8" s="14" customFormat="1" ht="194.45" customHeight="1">
+      <c r="A19" s="43"/>
       <c r="B19" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" spans="1:7" s="14" customFormat="1" ht="116.45" customHeight="1">
-      <c r="A20" s="35"/>
-      <c r="B20" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>58</v>
+    <row r="20" spans="1:8" s="14" customFormat="1" ht="301.5" customHeight="1">
+      <c r="A20" s="43"/>
+      <c r="B20" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
     </row>
-    <row r="21" spans="1:7" s="14" customFormat="1" ht="124.5" customHeight="1">
-      <c r="A21" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" s="13"/>
+    <row r="21" spans="1:8" s="14" customFormat="1" ht="116.45" customHeight="1">
+      <c r="A21" s="43"/>
+      <c r="B21" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>47</v>
+      </c>
       <c r="E21" s="12"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" spans="1:7" ht="27.6" customHeight="1">
-      <c r="A22" s="33"/>
-      <c r="B22" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="10"/>
+    <row r="22" spans="1:8" s="14" customFormat="1" ht="124.5" customHeight="1">
+      <c r="A22" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="13"/>
+      <c r="E22" s="12"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" spans="1:7" ht="107.45" customHeight="1">
-      <c r="A23" s="33"/>
-      <c r="B23" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="13" t="s">
+    <row r="23" spans="1:8" ht="27.6" customHeight="1">
+      <c r="A23" s="52"/>
+      <c r="B23" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="13" t="s">
-        <v>49</v>
-      </c>
+      <c r="D23" s="9"/>
       <c r="E23" s="10"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" spans="1:7" ht="95.45" customHeight="1">
-      <c r="A24" s="33"/>
-      <c r="B24" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>55</v>
+    <row r="24" spans="1:8" ht="107.45" customHeight="1">
+      <c r="A24" s="52"/>
+      <c r="B24" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>48</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="34"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
+    <row r="25" spans="1:8" ht="95.45" customHeight="1">
+      <c r="A25" s="52"/>
+      <c r="B25" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>54</v>
+      </c>
       <c r="E25" s="10"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" spans="1:7" ht="147" hidden="1" customHeight="1">
-      <c r="A26" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="9"/>
+    <row r="26" spans="1:8" ht="106.5" customHeight="1">
+      <c r="A26" s="52"/>
+      <c r="B26" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>135</v>
+      </c>
       <c r="D26" s="9"/>
       <c r="E26" s="10"/>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" spans="1:7" ht="61.9" hidden="1" customHeight="1">
-      <c r="A27" s="33"/>
+    <row r="27" spans="1:8" ht="147" hidden="1" customHeight="1">
+      <c r="A27" s="52"/>
       <c r="B27" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>42</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C27" s="9"/>
       <c r="D27" s="9"/>
       <c r="E27" s="10"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" spans="1:7" ht="62.45" hidden="1" customHeight="1">
-      <c r="A28" s="33"/>
+    <row r="28" spans="1:8" ht="61.9" hidden="1" customHeight="1">
+      <c r="A28" s="52"/>
       <c r="B28" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="9"/>
+        <v>37</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="D28" s="9"/>
       <c r="E28" s="10"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" spans="1:7" hidden="1">
-      <c r="A29" s="33"/>
-      <c r="B29" s="10"/>
+    <row r="29" spans="1:8" ht="62.45" hidden="1" customHeight="1">
+      <c r="A29" s="52"/>
+      <c r="B29" s="10" t="s">
+        <v>39</v>
+      </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
       <c r="E29" s="10"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" spans="1:7" hidden="1">
-      <c r="A30" s="33"/>
+    <row r="30" spans="1:8" ht="15" hidden="1" customHeight="1">
+      <c r="A30" s="52"/>
       <c r="B30" s="10"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -3196,8 +3343,8 @@
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" spans="1:7" hidden="1">
-      <c r="A31" s="33"/>
+    <row r="31" spans="1:8" ht="15" hidden="1" customHeight="1">
+      <c r="A31" s="52"/>
       <c r="B31" s="10"/>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
@@ -3205,8 +3352,8 @@
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
     </row>
-    <row r="32" spans="1:7" hidden="1">
-      <c r="A32" s="33"/>
+    <row r="32" spans="1:8" ht="15" hidden="1" customHeight="1">
+      <c r="A32" s="52"/>
       <c r="B32" s="10"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -3214,8 +3361,8 @@
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
     </row>
-    <row r="33" spans="1:7" hidden="1">
-      <c r="A33" s="33"/>
+    <row r="33" spans="1:7" ht="15" hidden="1" customHeight="1">
+      <c r="A33" s="52"/>
       <c r="B33" s="10"/>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -3223,8 +3370,8 @@
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
     </row>
-    <row r="34" spans="1:7" hidden="1">
-      <c r="A34" s="33"/>
+    <row r="34" spans="1:7" ht="15" hidden="1" customHeight="1">
+      <c r="A34" s="52"/>
       <c r="B34" s="10"/>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -3232,8 +3379,8 @@
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
     </row>
-    <row r="35" spans="1:7" hidden="1">
-      <c r="A35" s="34"/>
+    <row r="35" spans="1:7" ht="15" hidden="1" customHeight="1">
+      <c r="A35" s="52"/>
       <c r="B35" s="10"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
@@ -3241,17 +3388,29 @@
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
     </row>
-    <row r="36" spans="1:7">
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
+    <row r="36" spans="1:7" ht="15" hidden="1" customHeight="1">
+      <c r="A36" s="52"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="52"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="52"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="A16:A20"/>
+  <mergeCells count="4">
+    <mergeCell ref="A17:A21"/>
     <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A15"/>
-    <mergeCell ref="A26:A35"/>
+    <mergeCell ref="A6:A16"/>
+    <mergeCell ref="A22:A38"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3267,13 +3426,13 @@
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
+                <xdr:row>16</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>1657350</xdr:colOff>
-                <xdr:row>15</xdr:row>
+                <xdr:row>16</xdr:row>
                 <xdr:rowOff>1771650</xdr:rowOff>
               </to>
             </anchor>
@@ -3290,440 +3449,1050 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:R71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.5703125" style="21" customWidth="1"/>
-    <col min="2" max="2" width="65.42578125" style="22" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" style="23" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="23"/>
-    <col min="6" max="6" width="9.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.85546875" style="23" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="23"/>
-    <col min="10" max="11" width="9.140625" style="21"/>
-    <col min="12" max="12" width="11.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="21"/>
-    <col min="14" max="14" width="9.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="21"/>
+    <col min="2" max="2" width="10.5703125" style="32" customWidth="1"/>
+    <col min="3" max="3" width="65.42578125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="34" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" style="23" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="23"/>
+    <col min="8" max="8" width="9.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.85546875" style="23" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="23"/>
+    <col min="12" max="13" width="9.140625" style="21"/>
+    <col min="14" max="14" width="11.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="21"/>
+    <col min="16" max="16" width="9.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="D1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="H1" s="20"/>
-      <c r="J1" s="25"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="36" t="s">
+    <row r="1" spans="1:18" s="38" customFormat="1" ht="18.75">
+      <c r="B1" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="39"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="42"/>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="J2" s="20"/>
+      <c r="L2" s="25"/>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="J3" s="20"/>
+      <c r="L3" s="25"/>
+    </row>
+    <row r="4" spans="1:18" s="32" customFormat="1">
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="34"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="25"/>
+    </row>
+    <row r="5" spans="1:18" s="32" customFormat="1">
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="34"/>
+      <c r="E5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="23"/>
+    </row>
+    <row r="6" spans="1:18" s="32" customFormat="1">
+      <c r="A6" s="44"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="34"/>
+      <c r="E6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="23"/>
+    </row>
+    <row r="7" spans="1:18" s="32" customFormat="1">
+      <c r="A7" s="44"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="34"/>
+      <c r="E7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="23"/>
+      <c r="M7" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="N7" s="45">
         <v>80</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="O7" s="45"/>
+      <c r="P7" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="H2" s="20"/>
-      <c r="J2" s="25"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="36"/>
-      <c r="D3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="H3" s="20"/>
-      <c r="J3" s="25"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="D4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="H4" s="20"/>
-      <c r="J4" s="25"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="36" t="s">
+      <c r="Q7" s="46">
+        <v>50</v>
+      </c>
+      <c r="R7" s="46"/>
+    </row>
+    <row r="8" spans="1:18" s="32" customFormat="1">
+      <c r="A8" s="44"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="34"/>
+      <c r="E8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="23"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="37"/>
+    </row>
+    <row r="9" spans="1:18" s="32" customFormat="1">
+      <c r="A9" s="44"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="34"/>
+      <c r="E9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="23"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="37"/>
+    </row>
+    <row r="10" spans="1:18" s="32" customFormat="1">
+      <c r="A10" s="44"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="23"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="37"/>
+    </row>
+    <row r="11" spans="1:18" s="32" customFormat="1">
+      <c r="A11" s="44"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="23"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="37"/>
+    </row>
+    <row r="12" spans="1:18" s="32" customFormat="1">
+      <c r="A12" s="44"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="23"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="37"/>
+    </row>
+    <row r="13" spans="1:18" s="32" customFormat="1">
+      <c r="A13" s="44"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="34"/>
+      <c r="E13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="23"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="37"/>
+    </row>
+    <row r="14" spans="1:18" s="32" customFormat="1">
+      <c r="A14" s="44"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="23"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="37"/>
+    </row>
+    <row r="15" spans="1:18" s="32" customFormat="1">
+      <c r="A15" s="44"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="44"/>
+      <c r="R15" s="44"/>
+    </row>
+    <row r="16" spans="1:18" s="32" customFormat="1">
+      <c r="A16" s="44"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="25"/>
+    </row>
+    <row r="17" spans="1:12" s="32" customFormat="1">
+      <c r="A17" s="44"/>
+      <c r="B17" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="34"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="25"/>
+    </row>
+    <row r="18" spans="1:12" s="32" customFormat="1">
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="D18" s="34"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="25"/>
+    </row>
+    <row r="19" spans="1:12" s="32" customFormat="1">
+      <c r="A19" s="44"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="D19" s="34"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="25"/>
+    </row>
+    <row r="20" spans="1:12" s="32" customFormat="1">
+      <c r="A20" s="44"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="34"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="25"/>
+    </row>
+    <row r="21" spans="1:12" s="32" customFormat="1">
+      <c r="A21" s="44"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" s="34"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="25"/>
+    </row>
+    <row r="22" spans="1:12" s="32" customFormat="1">
+      <c r="A22" s="44"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="25"/>
+    </row>
+    <row r="23" spans="1:12" s="32" customFormat="1">
+      <c r="A23" s="44"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="25"/>
+    </row>
+    <row r="24" spans="1:12" s="32" customFormat="1">
+      <c r="A24" s="44"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="23"/>
+    </row>
+    <row r="25" spans="1:12" s="32" customFormat="1">
+      <c r="A25" s="44"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="23"/>
+    </row>
+    <row r="26" spans="1:12" s="32" customFormat="1">
+      <c r="A26" s="44"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="23"/>
+    </row>
+    <row r="27" spans="1:12" s="32" customFormat="1">
+      <c r="A27" s="44"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="23"/>
+    </row>
+    <row r="28" spans="1:12" s="32" customFormat="1">
+      <c r="A28" s="44"/>
+      <c r="B28" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" s="34"/>
+      <c r="E28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="23"/>
+    </row>
+    <row r="29" spans="1:12" s="32" customFormat="1">
+      <c r="A29" s="44"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29" s="34"/>
+      <c r="E29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="23"/>
+    </row>
+    <row r="30" spans="1:12" s="32" customFormat="1">
+      <c r="A30" s="44"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="D30" s="34"/>
+      <c r="E30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="23"/>
+    </row>
+    <row r="31" spans="1:12" s="32" customFormat="1">
+      <c r="A31" s="44"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="D31" s="34"/>
+      <c r="E31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="23"/>
+    </row>
+    <row r="32" spans="1:12" s="32" customFormat="1">
+      <c r="A32" s="44"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="23"/>
+    </row>
+    <row r="33" spans="1:12" s="32" customFormat="1">
+      <c r="A33" s="44"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="23"/>
+    </row>
+    <row r="34" spans="1:12" s="32" customFormat="1">
+      <c r="A34" s="44"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="23"/>
+    </row>
+    <row r="35" spans="1:12" s="32" customFormat="1" ht="30">
+      <c r="A35" s="44"/>
+      <c r="B35" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="D35" s="34"/>
+      <c r="E35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="23"/>
+    </row>
+    <row r="36" spans="1:12" s="32" customFormat="1">
+      <c r="A36" s="44"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="23"/>
+    </row>
+    <row r="37" spans="1:12" s="32" customFormat="1">
+      <c r="A37" s="44"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="23"/>
+    </row>
+    <row r="38" spans="1:12" s="32" customFormat="1">
+      <c r="A38" s="44"/>
+      <c r="B38" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="D38" s="34"/>
+      <c r="E38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="23"/>
+    </row>
+    <row r="39" spans="1:12" s="32" customFormat="1">
+      <c r="A39" s="44"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D39" s="34"/>
+      <c r="E39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="23"/>
+    </row>
+    <row r="40" spans="1:12" s="32" customFormat="1">
+      <c r="A40" s="44"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="D40" s="34"/>
+      <c r="E40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="23"/>
+    </row>
+    <row r="41" spans="1:12" s="32" customFormat="1">
+      <c r="A41" s="44"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="D41" s="34"/>
+      <c r="E41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="23"/>
+    </row>
+    <row r="42" spans="1:12" s="32" customFormat="1">
+      <c r="A42" s="44"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="25"/>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="F43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="J43" s="20"/>
+      <c r="L43" s="25"/>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E44" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="F44" s="24">
+        <v>3</v>
+      </c>
+      <c r="G44" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="H44" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="I44" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="J44" s="20">
+        <f>$F$44*$H$44</f>
+        <v>1.5</v>
+      </c>
+      <c r="L44" s="25"/>
+    </row>
+    <row r="45" spans="1:12" ht="30">
+      <c r="A45" s="44"/>
+      <c r="E45" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="F45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="J45" s="20"/>
+      <c r="L45" s="25"/>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="44"/>
+      <c r="F46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="J46" s="20"/>
+      <c r="L46" s="25"/>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="44"/>
+      <c r="F47" s="24"/>
+      <c r="H47" s="24"/>
+      <c r="J47" s="20"/>
+      <c r="L47" s="25"/>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="44"/>
+      <c r="C48" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="F48" s="24"/>
+      <c r="G48" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="H48" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="I48" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="J48" s="20">
+        <f>$H$48*$F$44</f>
+        <v>4.5</v>
+      </c>
+      <c r="L48" s="25"/>
+    </row>
+    <row r="49" spans="1:18">
+      <c r="A49" s="44"/>
+      <c r="F49" s="24"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="20"/>
+      <c r="L49" s="25"/>
+    </row>
+    <row r="50" spans="1:18" ht="79.5" customHeight="1">
+      <c r="F50" s="24"/>
+      <c r="H50" s="24"/>
+      <c r="J50" s="20"/>
+      <c r="L50" s="25"/>
+    </row>
+    <row r="51" spans="1:18">
+      <c r="A51" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="C51" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="E51" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F51" s="24">
+        <v>1</v>
+      </c>
+      <c r="G51" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="H51" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="I51" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="J51" s="20">
+        <f>$F$51*$H$51*100</f>
+        <v>20</v>
+      </c>
+      <c r="L51" s="25"/>
+    </row>
+    <row r="52" spans="1:18" ht="11.25" customHeight="1">
+      <c r="A52" s="44"/>
+      <c r="F52" s="24"/>
+      <c r="H52" s="24"/>
+      <c r="J52" s="20"/>
+      <c r="L52" s="25"/>
+    </row>
+    <row r="53" spans="1:18">
+      <c r="A53" s="44"/>
+      <c r="C53" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F53" s="24"/>
+      <c r="G53" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="H53" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="I53" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="J53" s="20">
+        <f>$J$51*$H$53</f>
+        <v>30</v>
+      </c>
+      <c r="L53" s="25"/>
+    </row>
+    <row r="54" spans="1:18">
+      <c r="A54" s="44"/>
+      <c r="F54" s="24"/>
+      <c r="H54" s="24"/>
+      <c r="J54" s="20"/>
+      <c r="L54" s="25"/>
+    </row>
+    <row r="55" spans="1:18">
+      <c r="A55" s="44"/>
+      <c r="C55" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F55" s="24"/>
+      <c r="G55" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="H55" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="I55" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="J55" s="20">
+        <f>$H$55*$J$51</f>
+        <v>30</v>
+      </c>
+      <c r="L55" s="25"/>
+    </row>
+    <row r="56" spans="1:18">
+      <c r="A56" s="44"/>
+      <c r="F56" s="24"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="26"/>
+      <c r="J56" s="20"/>
+      <c r="L56" s="25"/>
+    </row>
+    <row r="57" spans="1:18" ht="81" customHeight="1">
+      <c r="F57" s="24"/>
+      <c r="H57" s="24"/>
+      <c r="J57" s="20"/>
+      <c r="L57" s="25"/>
+    </row>
+    <row r="58" spans="1:18" ht="51" customHeight="1">
+      <c r="A58" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="E58" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="F58" s="24">
+        <v>1</v>
+      </c>
+      <c r="H58" s="24"/>
+      <c r="I58" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="J58" s="20" t="str">
+        <f>IF($F$58*$F$59*$J$44&gt;=$Q$66,"TRUE","FALSE")</f>
+        <v>FALSE</v>
+      </c>
+      <c r="M58" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="N58" s="20">
+        <f>$F$58*$F$59*$J$44</f>
+        <v>3</v>
+      </c>
+      <c r="O58" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="P58" s="47">
+        <f>$Q$66</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" ht="61.5" customHeight="1">
+      <c r="A59" s="44"/>
+      <c r="E59" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="F59" s="20">
+        <f>100/$Q$66</f>
+        <v>2</v>
+      </c>
+      <c r="H59" s="24"/>
+      <c r="I59" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="J59" s="20" t="str">
+        <f>IF($F$58*$F$59*$J$53&gt;=$Q$66,"TRUE","FALSE")</f>
+        <v>TRUE</v>
+      </c>
+      <c r="L59" s="25"/>
+      <c r="M59" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="N59" s="20">
+        <f>$F$58*$F$59*$J$53</f>
+        <v>60</v>
+      </c>
+      <c r="O59" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="P59" s="48"/>
+    </row>
+    <row r="60" spans="1:18" ht="84" customHeight="1">
+      <c r="F60" s="24"/>
+      <c r="H60" s="24"/>
+      <c r="J60" s="20"/>
+      <c r="L60" s="25"/>
+    </row>
+    <row r="61" spans="1:18">
+      <c r="A61" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="C61" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="E61" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="F61" s="24">
+        <v>0.8</v>
+      </c>
+      <c r="H61" s="24"/>
+      <c r="I61" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="J61" s="20">
+        <f>$F$61*$F$44</f>
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="L61" s="25"/>
+    </row>
+    <row r="62" spans="1:18">
+      <c r="A62" s="44"/>
+      <c r="F62" s="24"/>
+      <c r="H62" s="24"/>
+      <c r="J62" s="20"/>
+      <c r="L62" s="25"/>
+    </row>
+    <row r="63" spans="1:18">
+      <c r="M63" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="24">
-        <v>3</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="F5" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="H5" s="20">
-        <f>$D$5*$F$5</f>
-        <v>1.5</v>
-      </c>
-      <c r="J5" s="25"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="36"/>
-      <c r="D6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="H6" s="20"/>
-      <c r="J6" s="25"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="36"/>
-      <c r="D7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="H7" s="20"/>
-      <c r="J7" s="25"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="36"/>
-      <c r="D8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="H8" s="20"/>
-      <c r="J8" s="25"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="36"/>
-      <c r="B9" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="F9" s="24">
-        <v>1.5</v>
-      </c>
-      <c r="G9" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="H9" s="20">
-        <f>$F$9*$D$5</f>
-        <v>4.5</v>
-      </c>
-      <c r="J9" s="25"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="36"/>
-      <c r="D10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="20"/>
-      <c r="J10" s="25"/>
-    </row>
-    <row r="11" spans="1:10" ht="79.5" customHeight="1">
-      <c r="D11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="H11" s="20"/>
-      <c r="J11" s="25"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="D12" s="24">
-        <v>1</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="F12" s="24">
-        <v>0.2</v>
-      </c>
-      <c r="G12" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="H12" s="20">
-        <f>$D$12*$F$12*100</f>
-        <v>20</v>
-      </c>
-      <c r="J12" s="25"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="36"/>
-      <c r="D13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="H13" s="20"/>
-      <c r="J13" s="25"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="36"/>
-      <c r="B14" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="F14" s="24">
-        <v>1.5</v>
-      </c>
-      <c r="G14" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="H14" s="20">
-        <f>$H$12*$F$14</f>
-        <v>30</v>
-      </c>
-      <c r="J14" s="25"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="36"/>
-      <c r="D15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="H15" s="20"/>
-      <c r="J15" s="25"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="36"/>
-      <c r="B16" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="F16" s="24">
-        <v>1.5</v>
-      </c>
-      <c r="G16" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="H16" s="20">
-        <f>$F$16*$H$12</f>
-        <v>30</v>
-      </c>
-      <c r="J16" s="25"/>
-    </row>
-    <row r="17" spans="1:16">
-      <c r="A17" s="36"/>
-      <c r="D17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="20"/>
-      <c r="J17" s="25"/>
-    </row>
-    <row r="18" spans="1:16" ht="81" customHeight="1">
-      <c r="D18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="H18" s="20"/>
-      <c r="J18" s="25"/>
-    </row>
-    <row r="19" spans="1:16" ht="51" customHeight="1">
-      <c r="A19" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="D19" s="24">
-        <v>1</v>
-      </c>
-      <c r="F19" s="24"/>
-      <c r="G19" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="H19" s="20" t="str">
-        <f>IF($D$19*$D$20*$H$5&gt;=$O$27,"TRUE","FALSE")</f>
-        <v>FALSE</v>
-      </c>
-      <c r="K19" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="L19" s="20">
-        <f>$D$19*$D$20*$H$5</f>
-        <v>3</v>
-      </c>
-      <c r="M19" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="N19" s="37">
-        <f>$O$27</f>
+      <c r="N63" s="49"/>
+      <c r="O63" s="49"/>
+      <c r="P63" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q63" s="49"/>
+      <c r="R63" s="49"/>
+    </row>
+    <row r="64" spans="1:18">
+      <c r="M64" s="49"/>
+      <c r="N64" s="49"/>
+      <c r="O64" s="49"/>
+      <c r="P64" s="49"/>
+      <c r="Q64" s="49"/>
+      <c r="R64" s="49"/>
+    </row>
+    <row r="65" spans="13:18">
+      <c r="M65" s="49"/>
+      <c r="N65" s="49"/>
+      <c r="O65" s="49"/>
+      <c r="P65" s="49"/>
+      <c r="Q65" s="49"/>
+      <c r="R65" s="49"/>
+    </row>
+    <row r="66" spans="13:18">
+      <c r="M66" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="N66" s="45">
+        <v>80</v>
+      </c>
+      <c r="O66" s="45"/>
+      <c r="P66" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q66" s="46">
         <v>50</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" ht="61.5" customHeight="1">
-      <c r="A20" s="36"/>
-      <c r="C20" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="D20" s="20">
-        <f>100/$O$27</f>
-        <v>2</v>
-      </c>
-      <c r="F20" s="24"/>
-      <c r="G20" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="H20" s="20" t="str">
-        <f>IF($D$19*$D$20*$H$14&gt;=$O$27,"TRUE","FALSE")</f>
-        <v>TRUE</v>
-      </c>
-      <c r="J20" s="25"/>
-      <c r="K20" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="L20" s="20">
-        <f>$D$19*$D$20*$H$14</f>
-        <v>60</v>
-      </c>
-      <c r="M20" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="N20" s="38"/>
-    </row>
-    <row r="21" spans="1:16" ht="84" customHeight="1">
-      <c r="D21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="H21" s="20"/>
-      <c r="J21" s="25"/>
-    </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="D22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="H22" s="20"/>
-      <c r="J22" s="25"/>
-    </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="36"/>
-      <c r="D23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="H23" s="20"/>
-      <c r="J23" s="25"/>
-    </row>
-    <row r="24" spans="1:16">
-      <c r="K24" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="L24" s="39"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
-    </row>
-    <row r="25" spans="1:16">
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="39"/>
-      <c r="O25" s="39"/>
-      <c r="P25" s="39"/>
-    </row>
-    <row r="26" spans="1:16">
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="39"/>
-      <c r="O26" s="39"/>
-      <c r="P26" s="39"/>
-    </row>
-    <row r="27" spans="1:16">
-      <c r="K27" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="L27" s="41">
-        <v>80</v>
-      </c>
-      <c r="M27" s="41"/>
-      <c r="N27" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="O27" s="40">
-        <v>50</v>
-      </c>
-      <c r="P27" s="40"/>
-    </row>
-    <row r="28" spans="1:16">
-      <c r="K28" s="23"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="36"/>
-      <c r="P28" s="36"/>
-    </row>
-    <row r="29" spans="1:16">
-      <c r="K29" s="23"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="36"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="36"/>
-      <c r="P29" s="36"/>
-    </row>
-    <row r="30" spans="1:16">
-      <c r="K30" s="23"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="36"/>
-      <c r="N30" s="25"/>
-      <c r="O30" s="36"/>
-      <c r="P30" s="36"/>
-    </row>
-    <row r="31" spans="1:16">
-      <c r="K31" s="23"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="36"/>
-      <c r="N31" s="25"/>
-      <c r="O31" s="36"/>
-      <c r="P31" s="36"/>
-    </row>
-    <row r="32" spans="1:16">
-      <c r="K32" s="23"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="36"/>
-      <c r="N32" s="25"/>
-      <c r="O32" s="36"/>
-      <c r="P32" s="36"/>
+      <c r="R66" s="46"/>
+    </row>
+    <row r="67" spans="13:18">
+      <c r="M67" s="23"/>
+      <c r="N67" s="44"/>
+      <c r="O67" s="44"/>
+      <c r="P67" s="25"/>
+      <c r="Q67" s="44"/>
+      <c r="R67" s="44"/>
+    </row>
+    <row r="68" spans="13:18">
+      <c r="M68" s="23"/>
+      <c r="N68" s="44"/>
+      <c r="O68" s="44"/>
+      <c r="P68" s="25"/>
+      <c r="Q68" s="44"/>
+      <c r="R68" s="44"/>
+    </row>
+    <row r="69" spans="13:18">
+      <c r="M69" s="23"/>
+      <c r="N69" s="44"/>
+      <c r="O69" s="44"/>
+      <c r="P69" s="25"/>
+      <c r="Q69" s="44"/>
+      <c r="R69" s="44"/>
+    </row>
+    <row r="70" spans="13:18">
+      <c r="M70" s="23"/>
+      <c r="N70" s="44"/>
+      <c r="O70" s="44"/>
+      <c r="P70" s="25"/>
+      <c r="Q70" s="44"/>
+      <c r="R70" s="44"/>
+    </row>
+    <row r="71" spans="13:18">
+      <c r="M71" s="23"/>
+      <c r="N71" s="44"/>
+      <c r="O71" s="44"/>
+      <c r="P71" s="25"/>
+      <c r="Q71" s="44"/>
+      <c r="R71" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="K24:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="N24:P26"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="O28:P28"/>
+  <mergeCells count="28">
+    <mergeCell ref="Q70:R70"/>
+    <mergeCell ref="Q67:R67"/>
+    <mergeCell ref="A2:A42"/>
+    <mergeCell ref="Q68:R68"/>
+    <mergeCell ref="Q69:R69"/>
+    <mergeCell ref="M63:O65"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q71:R71"/>
+    <mergeCell ref="A51:A56"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="P58:P59"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="P63:R65"/>
+    <mergeCell ref="Q66:R66"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="B17:B25"/>
+    <mergeCell ref="B2:B16"/>
+    <mergeCell ref="N7:O7"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
